--- a/data/trans_orig/Q5403-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Provincia-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6567</v>
+        <v>5696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02979864508721598</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1674051916348316</v>
+        <v>0.145203797910413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6193</v>
+        <v>5826</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01566718871139207</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08299057627666644</v>
+        <v>0.0780776467028747</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>6026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2476</v>
+        <v>2627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11847</v>
+        <v>12569</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1703042988115802</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06996201641477205</v>
+        <v>0.07425215271905684</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3348043669718758</v>
+        <v>0.3551861262547672</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -828,19 +828,19 @@
         <v>3443</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8534</v>
+        <v>8666</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08777451392956452</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0249877066625969</v>
+        <v>0.02481493000344335</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2175300684698557</v>
+        <v>0.2208926267978652</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -849,19 +849,19 @@
         <v>9470</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4475</v>
+        <v>4698</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17178</v>
+        <v>16347</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1269127382130129</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0599705125753995</v>
+        <v>0.06295903227134407</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.230211470609774</v>
+        <v>0.2190769277650324</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>29360</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23539</v>
+        <v>22817</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32910</v>
+        <v>32759</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8296957011884198</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6651956330281242</v>
+        <v>0.6448138737452332</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9300379835852279</v>
+        <v>0.9257478472809432</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -899,19 +899,19 @@
         <v>34618</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28809</v>
+        <v>29009</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37984</v>
+        <v>38028</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8824268409832196</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7343393150550116</v>
+        <v>0.7394341734340961</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9682105555918895</v>
+        <v>0.9693468978366411</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>66</v>
@@ -920,19 +920,19 @@
         <v>63978</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56134</v>
+        <v>56307</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69087</v>
+        <v>68768</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8574200730755951</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7522927928754857</v>
+        <v>0.7546111316952181</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9258850914228007</v>
+        <v>0.921615732124783</v>
       </c>
     </row>
     <row r="7">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6895</v>
+        <v>6742</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0292850159986555</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1034425288680421</v>
+        <v>0.1011532929670146</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1045,19 +1045,19 @@
         <v>8362</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4027</v>
+        <v>3921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15837</v>
+        <v>15463</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08543802040126054</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04114467151958381</v>
+        <v>0.04005710185824891</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.161811243296946</v>
+        <v>0.1579822430324945</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1066,19 +1066,19 @@
         <v>10314</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5212</v>
+        <v>5062</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17849</v>
+        <v>18776</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06268924811968966</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03167883234413398</v>
+        <v>0.03076644397786224</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1084825324577189</v>
+        <v>0.1141186612785789</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>3900</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9119</v>
+        <v>9031</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0585158584921676</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01496826754307619</v>
+        <v>0.01459618028295891</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1368058137589633</v>
+        <v>0.135497607559483</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1116,19 +1116,19 @@
         <v>7047</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3102</v>
+        <v>3189</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13950</v>
+        <v>13411</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0719970114569924</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03169365142293528</v>
+        <v>0.03258528207151347</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1425279038424357</v>
+        <v>0.1370213591713282</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1137,19 +1137,19 @@
         <v>10947</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5830</v>
+        <v>5941</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18838</v>
+        <v>18224</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06653551064946667</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03543702658653839</v>
+        <v>0.03610790781850779</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1144985921364113</v>
+        <v>0.1107671562989928</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>60802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54905</v>
+        <v>55035</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64618</v>
+        <v>64651</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9121991255091769</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8237255054079012</v>
+        <v>0.8256892052829994</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9694514536561174</v>
+        <v>0.9699529790060091</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -1187,19 +1187,19 @@
         <v>82466</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74319</v>
+        <v>73927</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88420</v>
+        <v>88827</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8425649681417471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7593237224985351</v>
+        <v>0.7553197985185491</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9033948249224201</v>
+        <v>0.9075515487748139</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -1208,19 +1208,19 @@
         <v>143268</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134086</v>
+        <v>133802</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151696</v>
+        <v>151081</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8707752412308437</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8149706394554461</v>
+        <v>0.813240139928421</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9219989434261118</v>
+        <v>0.9182618347273752</v>
       </c>
     </row>
     <row r="11">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5867</v>
+        <v>5762</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03753273606965672</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1151718446170389</v>
+        <v>0.1131075526073478</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1333,19 +1333,19 @@
         <v>9138</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4537</v>
+        <v>4556</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17934</v>
+        <v>16936</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1094113635356069</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05431731438927175</v>
+        <v>0.05454559160716693</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2147279457248994</v>
+        <v>0.2027735146749947</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1354,19 +1354,19 @@
         <v>11050</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5635</v>
+        <v>5646</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18243</v>
+        <v>19510</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08218058089829368</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04190463666211348</v>
+        <v>0.04199018665592692</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1356724318358523</v>
+        <v>0.1450963439589855</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>2934</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>908</v>
+        <v>880</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7691</v>
+        <v>7990</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05758922432913637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01782105229477164</v>
+        <v>0.0172824155341778</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1509882304067991</v>
+        <v>0.1568457368260631</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1404,19 +1404,19 @@
         <v>17198</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10181</v>
+        <v>10177</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25074</v>
+        <v>25027</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2059144190486809</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1218952038619694</v>
+        <v>0.1218527131785468</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3002170075039767</v>
+        <v>0.2996507563735382</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1425,19 +1425,19 @@
         <v>20132</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12620</v>
+        <v>12952</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30077</v>
+        <v>29850</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1497223174541087</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09385612600251693</v>
+        <v>0.09632704317486269</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2236838716530335</v>
+        <v>0.2219939028844386</v>
       </c>
     </row>
     <row r="14">
@@ -1454,19 +1454,19 @@
         <v>46094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40927</v>
+        <v>40819</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49061</v>
+        <v>49081</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9048780396012069</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8034265969512789</v>
+        <v>0.801309293088752</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9631038498166333</v>
+        <v>0.9635098049869949</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -1475,19 +1475,19 @@
         <v>57185</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48549</v>
+        <v>47782</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65144</v>
+        <v>64652</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6846742174157121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5812841213982917</v>
+        <v>0.572093902934149</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7799686914649521</v>
+        <v>0.7740759861047197</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -1496,19 +1496,19 @@
         <v>103279</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>92705</v>
+        <v>92555</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>112262</v>
+        <v>112363</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7680971016475976</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6894587180231753</v>
+        <v>0.6883441051470093</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8349009847814164</v>
+        <v>0.8356570066064344</v>
       </c>
     </row>
     <row r="15">
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4532</v>
+        <v>4777</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01506936303083897</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08222656094675734</v>
+        <v>0.08666800521116751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1621,19 +1621,19 @@
         <v>4375</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9795</v>
+        <v>9927</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05887274817614983</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01468220610370576</v>
+        <v>0.01475472464948774</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1318110268541281</v>
+        <v>0.1335890831529426</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1642,19 +1642,19 @@
         <v>5206</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11090</v>
+        <v>11622</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04021840053491844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01499460224648998</v>
+        <v>0.0149770978818281</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08568019899805873</v>
+        <v>0.08979272766304856</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>2649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7054</v>
+        <v>7196</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04806141728193884</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01520774053849515</v>
+        <v>0.01488842147687673</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1279781489869171</v>
+        <v>0.1305539547724578</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1692,19 +1692,19 @@
         <v>10334</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5218</v>
+        <v>5244</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17921</v>
+        <v>16599</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1390622602795374</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07021342160043989</v>
+        <v>0.07056577133002369</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2411549432431469</v>
+        <v>0.2233718129385677</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1713,19 +1713,19 @@
         <v>12983</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7223</v>
+        <v>7323</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21212</v>
+        <v>21988</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1003081467494774</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05580658044082763</v>
+        <v>0.05657613172758277</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1638820411104605</v>
+        <v>0.1698739331591129</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>51642</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47113</v>
+        <v>47076</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54189</v>
+        <v>54274</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9368692196872221</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8547093985681866</v>
+        <v>0.8540388304074397</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9830774427302921</v>
+        <v>0.9846073282159828</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -1763,19 +1763,19 @@
         <v>59604</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51798</v>
+        <v>52397</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>65737</v>
+        <v>65683</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8020649915443128</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6970281192983019</v>
+        <v>0.7050808706266242</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8845953574725864</v>
+        <v>0.8838709719775407</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>119</v>
@@ -1784,19 +1784,19 @@
         <v>111247</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>101842</v>
+        <v>102364</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>118452</v>
+        <v>118161</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8594734527156042</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7868156271449376</v>
+        <v>0.7908489808437202</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9151371390492815</v>
+        <v>0.9128904578982424</v>
       </c>
     </row>
     <row r="19">
@@ -1888,19 +1888,19 @@
         <v>3472</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7895</v>
+        <v>8088</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1183105786044133</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03045341092094304</v>
+        <v>0.03065920598558971</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2690167331356386</v>
+        <v>0.2755847116930663</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1909,19 +1909,19 @@
         <v>8273</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3933</v>
+        <v>3946</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13757</v>
+        <v>14361</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2005855452975542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09534836181421381</v>
+        <v>0.09566023520255001</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3335370633986152</v>
+        <v>0.3481722327216115</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1930,19 +1930,19 @@
         <v>11745</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6463</v>
+        <v>6777</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18154</v>
+        <v>19607</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1663819610926681</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09154724035683633</v>
+        <v>0.096004836151664</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2571601523099081</v>
+        <v>0.2777493615434827</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>5167</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1798</v>
+        <v>2427</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9776</v>
+        <v>9933</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1760727441177817</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06125905607145993</v>
+        <v>0.08270177950250152</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3331045439087502</v>
+        <v>0.3384797151506987</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1980,19 +1980,19 @@
         <v>5289</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2024</v>
+        <v>1932</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11389</v>
+        <v>10351</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1282204440881571</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04906205710703542</v>
+        <v>0.04684872313958286</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2761354208328416</v>
+        <v>0.2509461934320781</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -2001,19 +2001,19 @@
         <v>10456</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5823</v>
+        <v>5683</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17434</v>
+        <v>17497</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1481137389656279</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08247993044349192</v>
+        <v>0.08050625138000139</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2469597089605805</v>
+        <v>0.2478633730350417</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>20708</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15832</v>
+        <v>15406</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24883</v>
+        <v>24282</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.705616677277805</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.539482695510113</v>
+        <v>0.5249572907192941</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8479027181743863</v>
+        <v>0.8274000400967683</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -2051,19 +2051,19 @@
         <v>27684</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21224</v>
+        <v>21172</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33237</v>
+        <v>33446</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6711940106142887</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5145826851458025</v>
+        <v>0.5133125791621064</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8058293149181738</v>
+        <v>0.8108794601594131</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2072,19 +2072,19 @@
         <v>48392</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40562</v>
+        <v>40150</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55636</v>
+        <v>55638</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.685504299941704</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.574584866256316</v>
+        <v>0.5687542199113603</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7881250533594855</v>
+        <v>0.7881546475967269</v>
       </c>
     </row>
     <row r="23">
@@ -2176,19 +2176,19 @@
         <v>2750</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7262</v>
+        <v>7520</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05827532058342169</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01786133930383448</v>
+        <v>0.01788772280371114</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1538705756103189</v>
+        <v>0.1593291462632423</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2197,19 +2197,19 @@
         <v>5862</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2204</v>
+        <v>2120</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12434</v>
+        <v>11908</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08337527203556434</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03135047977613804</v>
+        <v>0.03015464144971752</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1768543501161607</v>
+        <v>0.1693605331525375</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -2218,19 +2218,19 @@
         <v>8612</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3890</v>
+        <v>4199</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15274</v>
+        <v>15818</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07329379083836539</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03310670451516839</v>
+        <v>0.03573689842766269</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1299845531844779</v>
+        <v>0.1346107095400882</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>6705</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2863</v>
+        <v>2881</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11983</v>
+        <v>12454</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1420700885333618</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06066785066388698</v>
+        <v>0.06103639400818148</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2539089862381956</v>
+        <v>0.2638813153776482</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2268,19 +2268,19 @@
         <v>10084</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5459</v>
+        <v>4948</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17915</v>
+        <v>16787</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1434197604122701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07764737807863174</v>
+        <v>0.07038068440484199</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2548073343810298</v>
+        <v>0.2387541933183306</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -2289,19 +2289,19 @@
         <v>16789</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9796</v>
+        <v>9609</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25650</v>
+        <v>25628</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1428776600940465</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08336998541185967</v>
+        <v>0.08177383412017064</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2182899016428127</v>
+        <v>0.2181009496662135</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>37740</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32053</v>
+        <v>32237</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42345</v>
+        <v>42505</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7996545908832166</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6791454729106312</v>
+        <v>0.6830431844084051</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8972079105318336</v>
+        <v>0.90060080970198</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -2339,19 +2339,19 @@
         <v>54363</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>46314</v>
+        <v>46724</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60405</v>
+        <v>60782</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7732049675521656</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6587209809424212</v>
+        <v>0.6645579459938294</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8591329163556733</v>
+        <v>0.8645025752668765</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>92</v>
@@ -2360,19 +2360,19 @@
         <v>92105</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>81804</v>
+        <v>82453</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>100438</v>
+        <v>100265</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7838285490675881</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.696166531129907</v>
+        <v>0.7016950266046021</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8547511302164645</v>
+        <v>0.8532742086441343</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>2610</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6825</v>
+        <v>7011</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02463780012515411</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007401200264183313</v>
+        <v>0.007685120185063639</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06443467709301551</v>
+        <v>0.06619085292161286</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -2485,19 +2485,19 @@
         <v>4996</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11383</v>
+        <v>10324</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04265688941061477</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01533887612376513</v>
+        <v>0.0153057934878824</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09719351023291298</v>
+        <v>0.08815134754829536</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -2506,19 +2506,19 @@
         <v>7606</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3600</v>
+        <v>3759</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14529</v>
+        <v>14422</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03409947013742906</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01614193973861849</v>
+        <v>0.01685265482520213</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06513652272561823</v>
+        <v>0.06465889764268293</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>6114</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2514</v>
+        <v>2580</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12630</v>
+        <v>12147</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05772074171330834</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02373275490643121</v>
+        <v>0.0243598989147844</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1192277591999205</v>
+        <v>0.1146698036524125</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -2556,19 +2556,19 @@
         <v>22254</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14696</v>
+        <v>14303</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31375</v>
+        <v>31902</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1900097233617512</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1254783622999483</v>
+        <v>0.1221222244912123</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2678821983693574</v>
+        <v>0.2723809747111505</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>27</v>
@@ -2577,19 +2577,19 @@
         <v>28368</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>19548</v>
+        <v>18978</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>39147</v>
+        <v>39595</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1271845570476061</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08763818993193062</v>
+        <v>0.08508356428209894</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1755090690912516</v>
+        <v>0.1775173730009963</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>97204</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>90691</v>
+        <v>90115</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>102202</v>
+        <v>101584</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9176414581615375</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8561564441336481</v>
+        <v>0.8507222731536148</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9648232010446847</v>
+        <v>0.9589929896024425</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>91</v>
@@ -2627,19 +2627,19 @@
         <v>89871</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>81255</v>
+        <v>80076</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>98193</v>
+        <v>97845</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.767333387227634</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.693773723575521</v>
+        <v>0.6837042308455775</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8383922363804308</v>
+        <v>0.8354163714480256</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>190</v>
@@ -2648,19 +2648,19 @@
         <v>187075</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>175390</v>
+        <v>176197</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>196845</v>
+        <v>198304</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8387159728149648</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.786330524336442</v>
+        <v>0.7899487156222114</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8825195168561095</v>
+        <v>0.8890606166869235</v>
       </c>
     </row>
     <row r="31">
@@ -2752,19 +2752,19 @@
         <v>6758</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2948</v>
+        <v>2853</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13569</v>
+        <v>13898</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06039504943074921</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02634729135456919</v>
+        <v>0.02549699906827383</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1212632993227686</v>
+        <v>0.1242050592231188</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -2773,19 +2773,19 @@
         <v>13081</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7155</v>
+        <v>6684</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21639</v>
+        <v>22677</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08536916293978911</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04669480113897029</v>
+        <v>0.04362252771356993</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1412233905979337</v>
+        <v>0.1479969100510211</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -2794,19 +2794,19 @@
         <v>19838</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10897</v>
+        <v>12346</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>29526</v>
+        <v>29253</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07482886668081246</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04110153162699331</v>
+        <v>0.04656914648090961</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1113684449328887</v>
+        <v>0.1103384809734201</v>
       </c>
     </row>
     <row r="33">
@@ -2823,19 +2823,19 @@
         <v>6670</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2783</v>
+        <v>2852</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>12715</v>
+        <v>13343</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05960774276492098</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02487475409795398</v>
+        <v>0.02548508071322255</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1136352365787459</v>
+        <v>0.1192455427251675</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>17</v>
@@ -2844,19 +2844,19 @@
         <v>19098</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>11300</v>
+        <v>11516</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>28599</v>
+        <v>28533</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1246434642442652</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07374919987554372</v>
+        <v>0.07515796417246634</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1866444647555002</v>
+        <v>0.1862138595434925</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>24</v>
@@ -2865,19 +2865,19 @@
         <v>25768</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>17658</v>
+        <v>16725</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>36796</v>
+        <v>35739</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.09719521181438617</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06660355467449929</v>
+        <v>0.06308380098378437</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1387910839070798</v>
+        <v>0.1348057704553783</v>
       </c>
     </row>
     <row r="34">
@@ -2894,19 +2894,19 @@
         <v>98466</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>90968</v>
+        <v>90498</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>104666</v>
+        <v>104484</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8799972078043298</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8129938197659243</v>
+        <v>0.8087948218736876</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9354128613064712</v>
+        <v>0.9337813725675085</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>116</v>
@@ -2915,19 +2915,19 @@
         <v>121046</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>109790</v>
+        <v>110616</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>131133</v>
+        <v>130675</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7899873728159457</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7165309642120162</v>
+        <v>0.7219161616281466</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8558217795001909</v>
+        <v>0.8528324532919355</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>218</v>
@@ -2936,19 +2936,19 @@
         <v>219511</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>206502</v>
+        <v>206150</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>231906</v>
+        <v>231069</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8279759215048014</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7789077173848596</v>
+        <v>0.777578692835854</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8747256962109834</v>
+        <v>0.8715696814877208</v>
       </c>
     </row>
     <row r="35">
@@ -3040,19 +3040,19 @@
         <v>20285</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13043</v>
+        <v>13707</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29350</v>
+        <v>30249</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04037007294722576</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02595790127949391</v>
+        <v>0.02727975918907561</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05841162013131979</v>
+        <v>0.06020159891334523</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>51</v>
@@ -3061,19 +3061,19 @@
         <v>55257</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>41050</v>
+        <v>42509</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>72117</v>
+        <v>73004</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08163876367045232</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06064990420222593</v>
+        <v>0.06280541976522044</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1065495363373529</v>
+        <v>0.1078591556710384</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>73</v>
@@ -3082,19 +3082,19 @@
         <v>75541</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>59602</v>
+        <v>58788</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>94069</v>
+        <v>92831</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06405547404745575</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05053981157945576</v>
+        <v>0.04984994358657179</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07976608851931895</v>
+        <v>0.07871643945211088</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>40166</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>29083</v>
+        <v>29398</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>54246</v>
+        <v>53924</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07993735507681454</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0578807022030773</v>
+        <v>0.05850785438250945</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1079602621196252</v>
+        <v>0.1073185004957643</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>88</v>
@@ -3132,19 +3132,19 @@
         <v>94748</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>76619</v>
+        <v>78046</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>113785</v>
+        <v>114321</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1399847463091624</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1132000463322732</v>
+        <v>0.1153090662107757</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1681117676071608</v>
+        <v>0.1689037662487529</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>130</v>
@@ -3153,19 +3153,19 @@
         <v>134913</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>113567</v>
+        <v>112857</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>157792</v>
+        <v>157902</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1144004437146165</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09629962637654239</v>
+        <v>0.09569746602334878</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1338007787114317</v>
+        <v>0.1338940362963451</v>
       </c>
     </row>
     <row r="38">
@@ -3182,19 +3182,19 @@
         <v>442016</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>426540</v>
+        <v>426991</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>455207</v>
+        <v>454178</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8796925719759597</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8488941350133183</v>
+        <v>0.8497902315861281</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9059458618658085</v>
+        <v>0.9038975820684862</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>522</v>
@@ -3203,19 +3203,19 @@
         <v>526838</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>502623</v>
+        <v>504644</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>546689</v>
+        <v>548216</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7783764900203852</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7426001766360397</v>
+        <v>0.7455857230946255</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8077049347681514</v>
+        <v>0.8099618304640137</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>981</v>
@@ -3224,19 +3224,19 @@
         <v>968854</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>940898</v>
+        <v>941056</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>996459</v>
+        <v>996341</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8215440822379277</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7978392509410759</v>
+        <v>0.7979730295827008</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8449519285314004</v>
+        <v>0.8448521907156873</v>
       </c>
     </row>
     <row r="39">
@@ -3572,19 +3572,19 @@
         <v>2951</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7859</v>
+        <v>8420</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06665265023831969</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0</v>
+        <v>0.01970434436932259</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1774771482514347</v>
+        <v>0.1901460659405346</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3593,19 +3593,19 @@
         <v>9434</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5124</v>
+        <v>4308</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16163</v>
+        <v>16071</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1929515396857452</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1047899535278634</v>
+        <v>0.08811056800103612</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3305647418482359</v>
+        <v>0.3286905831402421</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -3614,19 +3614,19 @@
         <v>12386</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6933</v>
+        <v>7030</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20516</v>
+        <v>20342</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1329287997087996</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07440361004984206</v>
+        <v>0.07545125825529515</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2201839365135902</v>
+        <v>0.2183225184007683</v>
       </c>
     </row>
     <row r="5">
@@ -3643,19 +3643,19 @@
         <v>5983</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2838</v>
+        <v>2147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11967</v>
+        <v>11830</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1351037300903718</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06408264675185674</v>
+        <v>0.04848013887094554</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.270253991490068</v>
+        <v>0.2671560384933952</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -3664,19 +3664,19 @@
         <v>13690</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7354</v>
+        <v>7301</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19984</v>
+        <v>20014</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.28000029490137</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1504001709122903</v>
+        <v>0.1493305786398168</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.408728964351333</v>
+        <v>0.4093267412177813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -3685,19 +3685,19 @@
         <v>19673</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12745</v>
+        <v>12704</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28459</v>
+        <v>27885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.211139128573985</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.136788309937035</v>
+        <v>0.1363465659069029</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3054387201163854</v>
+        <v>0.2992804961239682</v>
       </c>
     </row>
     <row r="6">
@@ -3714,19 +3714,19 @@
         <v>35347</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29041</v>
+        <v>28973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39654</v>
+        <v>40137</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7982436196713085</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6558449375253073</v>
+        <v>0.6542974078120349</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8955152046366449</v>
+        <v>0.9064271048802565</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -3735,19 +3735,19 @@
         <v>25769</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18767</v>
+        <v>18780</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>32266</v>
+        <v>33029</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5270481654128848</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3838277548128314</v>
+        <v>0.3840973156862778</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6599109834560926</v>
+        <v>0.6755291098010425</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -3756,19 +3756,19 @@
         <v>61116</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>51355</v>
+        <v>51939</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69841</v>
+        <v>70029</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6559320717172155</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5511717598876511</v>
+        <v>0.5574350125824233</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.749570272337535</v>
+        <v>0.7515832861327658</v>
       </c>
     </row>
     <row r="7">
@@ -3860,19 +3860,19 @@
         <v>8527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3334</v>
+        <v>3921</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16398</v>
+        <v>17302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1076569965757581</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04208811310429321</v>
+        <v>0.04951017155476622</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.207040170756857</v>
+        <v>0.2184476076513143</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -3881,19 +3881,19 @@
         <v>20848</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13073</v>
+        <v>12834</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30337</v>
+        <v>30491</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2042061040914762</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1280454135473823</v>
+        <v>0.1257062520369455</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2971468476020651</v>
+        <v>0.2986613147757694</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -3902,19 +3902,19 @@
         <v>29375</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20217</v>
+        <v>20258</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42664</v>
+        <v>42373</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1620266846906344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1115141351974337</v>
+        <v>0.1117388110939489</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2353287355289157</v>
+        <v>0.2337237354610168</v>
       </c>
     </row>
     <row r="9">
@@ -3931,19 +3931,19 @@
         <v>7607</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2285</v>
+        <v>2327</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17161</v>
+        <v>17128</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09603830520547756</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02885483857219744</v>
+        <v>0.02937525261842365</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2166738769989885</v>
+        <v>0.2162542140933351</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -3952,19 +3952,19 @@
         <v>12019</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6383</v>
+        <v>6593</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19769</v>
+        <v>19752</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1177230670451682</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06251926757034544</v>
+        <v>0.06457847914913115</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1936388833321569</v>
+        <v>0.1934662551956617</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -3973,19 +3973,19 @@
         <v>19625</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11844</v>
+        <v>11933</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30593</v>
+        <v>30710</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1082496427145002</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06532967739218924</v>
+        <v>0.06581798707406965</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1687462581959925</v>
+        <v>0.1693912381067498</v>
       </c>
     </row>
     <row r="10">
@@ -4002,19 +4002,19 @@
         <v>63070</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53724</v>
+        <v>53960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70461</v>
+        <v>70699</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7963046982187644</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6783037270395379</v>
+        <v>0.6812924783199091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.88963119967958</v>
+        <v>0.8926276598132802</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -4023,19 +4023,19 @@
         <v>69226</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58457</v>
+        <v>58551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78871</v>
+        <v>78929</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6780708288633556</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5725877419063001</v>
+        <v>0.5735017384905864</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7725374754400475</v>
+        <v>0.7731102011986758</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -4044,19 +4044,19 @@
         <v>132296</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117462</v>
+        <v>117619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>143688</v>
+        <v>143847</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7297236725948654</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6479028886153082</v>
+        <v>0.6487681740125274</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.79255899131412</v>
+        <v>0.7934369601799469</v>
       </c>
     </row>
     <row r="11">
@@ -4148,19 +4148,19 @@
         <v>7083</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3020</v>
+        <v>2988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13409</v>
+        <v>13106</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1270730928371931</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05418680306149441</v>
+        <v>0.05361226365436182</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.240560945312747</v>
+        <v>0.2351228637870664</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -4169,19 +4169,19 @@
         <v>11954</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6555</v>
+        <v>6551</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19787</v>
+        <v>19629</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1494881496661628</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08197452914837521</v>
+        <v>0.0819146686125965</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2474412875236241</v>
+        <v>0.2454598633549902</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -4190,19 +4190,19 @@
         <v>19038</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11760</v>
+        <v>11956</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28298</v>
+        <v>28758</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1402812896780459</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08665547688059939</v>
+        <v>0.08809849835637912</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2085201888472152</v>
+        <v>0.2119071479504687</v>
       </c>
     </row>
     <row r="13">
@@ -4219,19 +4219,19 @@
         <v>6273</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13518</v>
+        <v>13669</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1125392356613754</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03789895727017495</v>
+        <v>0.03787286039486555</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2425091756926676</v>
+        <v>0.2452128382695951</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -4240,19 +4240,19 @@
         <v>7380</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3101</v>
+        <v>3068</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14031</v>
+        <v>13848</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09228619757749547</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03877294390040371</v>
+        <v>0.03837009884469949</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.175451766979293</v>
+        <v>0.1731696830982067</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -4261,19 +4261,19 @@
         <v>13653</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7193</v>
+        <v>7492</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22337</v>
+        <v>23677</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1006050203846404</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05300375857329279</v>
+        <v>0.05520333260400326</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1645954891493637</v>
+        <v>0.1744642708088168</v>
       </c>
     </row>
     <row r="14">
@@ -4290,19 +4290,19 @@
         <v>42386</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35234</v>
+        <v>34803</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48513</v>
+        <v>48433</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7603876715014315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6320949633889666</v>
+        <v>0.6243659281287489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8703165564351009</v>
+        <v>0.8688756849058529</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -4311,19 +4311,19 @@
         <v>60634</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53031</v>
+        <v>52175</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68208</v>
+        <v>67884</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7582256527563417</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6631533703290179</v>
+        <v>0.652450287407934</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8529393662675446</v>
+        <v>0.8488905666127734</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>98</v>
@@ -4332,19 +4332,19 @@
         <v>103019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>92106</v>
+        <v>91816</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>112238</v>
+        <v>112016</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7591136899373138</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6786949832339847</v>
+        <v>0.6765622920438258</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8270443366056035</v>
+        <v>0.8254054594171691</v>
       </c>
     </row>
     <row r="15">
@@ -4436,19 +4436,19 @@
         <v>6413</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2233</v>
+        <v>2909</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12883</v>
+        <v>13015</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1001597263605908</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03487337329228147</v>
+        <v>0.04543651098865379</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2012077647960736</v>
+        <v>0.203276054012635</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -4457,19 +4457,19 @@
         <v>9865</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5270</v>
+        <v>5265</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16657</v>
+        <v>17401</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1152826260936421</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06158060954804106</v>
+        <v>0.06152851832947522</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1946458730110467</v>
+        <v>0.2033395811924633</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -4478,19 +4478,19 @@
         <v>16278</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9889</v>
+        <v>9459</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26735</v>
+        <v>24853</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1088102243368083</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06609976764123647</v>
+        <v>0.06322471734655419</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1787068342766242</v>
+        <v>0.1661288718149481</v>
       </c>
     </row>
     <row r="17">
@@ -4507,19 +4507,19 @@
         <v>9760</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5086</v>
+        <v>5153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16935</v>
+        <v>17484</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1524332815470372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07943543609027572</v>
+        <v>0.08048276535942361</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2644930560069266</v>
+        <v>0.2730688737571144</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -4528,19 +4528,19 @@
         <v>17398</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11061</v>
+        <v>10553</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26518</v>
+        <v>26898</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2033086520519664</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1292555765363677</v>
+        <v>0.123319254769909</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.30988246117132</v>
+        <v>0.3143209351344229</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -4549,19 +4549,19 @@
         <v>27158</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19168</v>
+        <v>17681</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38250</v>
+        <v>37456</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1815346640438323</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.128123494618703</v>
+        <v>0.1181882967796635</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2556798555434725</v>
+        <v>0.2503680046991389</v>
       </c>
     </row>
     <row r="18">
@@ -4578,19 +4578,19 @@
         <v>47855</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40585</v>
+        <v>40127</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54419</v>
+        <v>54297</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7474069920923719</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6338663863035489</v>
+        <v>0.6267171974595863</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8499207001147449</v>
+        <v>0.8480258137158828</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -4599,19 +4599,19 @@
         <v>58311</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48397</v>
+        <v>48511</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>66093</v>
+        <v>65943</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6814087218543915</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.565551680963459</v>
+        <v>0.5668872963568863</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7723449807461163</v>
+        <v>0.7705926096235376</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>100</v>
@@ -4620,19 +4620,19 @@
         <v>106166</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93849</v>
+        <v>94467</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>116294</v>
+        <v>117422</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7096551116193593</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6273217142105068</v>
+        <v>0.6314548089545932</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7773541039302283</v>
+        <v>0.7848961476640139</v>
       </c>
     </row>
     <row r="19">
@@ -4724,19 +4724,19 @@
         <v>4448</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1136</v>
+        <v>1154</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9727</v>
+        <v>10066</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1407159945412992</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03593666501686143</v>
+        <v>0.0364966431425792</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3077092435588812</v>
+        <v>0.3184261210025721</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -4745,19 +4745,19 @@
         <v>11270</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6395</v>
+        <v>6033</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17917</v>
+        <v>16893</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2260483522079697</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1282753008967571</v>
+        <v>0.1210026836253797</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3593722614990281</v>
+        <v>0.338848004699768</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -4766,19 +4766,19 @@
         <v>15718</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9667</v>
+        <v>9078</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24267</v>
+        <v>23606</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1929362485306162</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.118667279684106</v>
+        <v>0.111427625102947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2978758477724798</v>
+        <v>0.2897574785326102</v>
       </c>
     </row>
     <row r="21">
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6903</v>
+        <v>6930</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07140175721307995</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2183577956336711</v>
+        <v>0.2192263107291491</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -4816,19 +4816,19 @@
         <v>6401</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2867</v>
+        <v>2390</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12559</v>
+        <v>11909</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1283972917351726</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05750649203858051</v>
+        <v>0.04794361263732472</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2519191806571733</v>
+        <v>0.2388683429148944</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -4837,19 +4837,19 @@
         <v>8658</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4071</v>
+        <v>4290</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14890</v>
+        <v>16064</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1062809211127441</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04996848247445826</v>
+        <v>0.05265740317275357</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1827787013366989</v>
+        <v>0.1971816139064629</v>
       </c>
     </row>
     <row r="22">
@@ -4866,19 +4866,19 @@
         <v>24907</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19655</v>
+        <v>18568</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28573</v>
+        <v>29227</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7878822482456209</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6217466833650414</v>
+        <v>0.5873571271286415</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9038575556752682</v>
+        <v>0.9245593528841407</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -4887,19 +4887,19 @@
         <v>32184</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25117</v>
+        <v>25937</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38593</v>
+        <v>39152</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6455543560568577</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5037994378336268</v>
+        <v>0.5202474037086229</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7741105058142309</v>
+        <v>0.7853231999289578</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>53</v>
@@ -4908,19 +4908,19 @@
         <v>57091</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47749</v>
+        <v>47680</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64722</v>
+        <v>64613</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7007828303566397</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5861195289761596</v>
+        <v>0.5852629745272662</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.794459009285013</v>
+        <v>0.7931216321125025</v>
       </c>
     </row>
     <row r="23">
@@ -5012,19 +5012,19 @@
         <v>6426</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3161</v>
+        <v>3195</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12676</v>
+        <v>12881</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1241607729094946</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06107530850568723</v>
+        <v>0.06173630562977721</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.244910997961229</v>
+        <v>0.248882598029255</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -5033,19 +5033,19 @@
         <v>16007</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9653</v>
+        <v>9620</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23433</v>
+        <v>24003</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.227980614866154</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1374797106428565</v>
+        <v>0.1370187613999982</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3337528219706588</v>
+        <v>0.3418590540359266</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -5054,19 +5054,19 @@
         <v>22433</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14536</v>
+        <v>14038</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31430</v>
+        <v>31055</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1839254574136514</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1191815558792671</v>
+        <v>0.1150951789398187</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2576872069486318</v>
+        <v>0.2546150333761344</v>
       </c>
     </row>
     <row r="25">
@@ -5083,19 +5083,19 @@
         <v>8530</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4242</v>
+        <v>4262</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14898</v>
+        <v>14871</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.164812423273535</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08195865995229451</v>
+        <v>0.08235637067238914</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2878432103964024</v>
+        <v>0.2873375054472063</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -5104,19 +5104,19 @@
         <v>5276</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2107</v>
+        <v>2056</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11244</v>
+        <v>12496</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07514002771597811</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03000704009963825</v>
+        <v>0.02928854478558447</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1601446008289378</v>
+        <v>0.1779740826450567</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -5125,19 +5125,19 @@
         <v>13806</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7501</v>
+        <v>7539</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22244</v>
+        <v>22273</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1131918242798801</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06150132102744173</v>
+        <v>0.06181427237181031</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1823731106249449</v>
+        <v>0.1826125255386707</v>
       </c>
     </row>
     <row r="26">
@@ -5154,19 +5154,19 @@
         <v>36800</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30338</v>
+        <v>29553</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42890</v>
+        <v>43059</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7110268038169704</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5861718005154588</v>
+        <v>0.5710091095809315</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8287019546562635</v>
+        <v>0.83197005436032</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>49</v>
@@ -5175,19 +5175,19 @@
         <v>48929</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>40987</v>
+        <v>41243</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>56374</v>
+        <v>56257</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6968793574178679</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5837643713275684</v>
+        <v>0.5874136941574832</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8029052279112059</v>
+        <v>0.8012458311791064</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>85</v>
@@ -5196,19 +5196,19 @@
         <v>85729</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>74472</v>
+        <v>75256</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>95260</v>
+        <v>95092</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7028827183064684</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6105902963163882</v>
+        <v>0.6170128365245171</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7810283220784245</v>
+        <v>0.7796488270199069</v>
       </c>
     </row>
     <row r="27">
@@ -5300,19 +5300,19 @@
         <v>10449</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4756</v>
+        <v>5150</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20196</v>
+        <v>21126</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09307544378699512</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04236249826474358</v>
+        <v>0.04587360396290247</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1799007609450342</v>
+        <v>0.1881822888882383</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -5321,19 +5321,19 @@
         <v>13626</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7416</v>
+        <v>7445</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22313</v>
+        <v>22321</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09598555143817003</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05224169728667763</v>
+        <v>0.05244025942801381</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1571791314072269</v>
+        <v>0.157229412329318</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>20</v>
@@ -5342,19 +5342,19 @@
         <v>24075</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14919</v>
+        <v>15416</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>36109</v>
+        <v>36680</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09470048018036784</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05868238098265498</v>
+        <v>0.06064068960620732</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1420363156914103</v>
+        <v>0.1442794226242063</v>
       </c>
     </row>
     <row r="29">
@@ -5371,19 +5371,19 @@
         <v>13367</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7656</v>
+        <v>7215</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21612</v>
+        <v>20429</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1190655599577691</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06819392334041839</v>
+        <v>0.06426515717995028</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1925137615574154</v>
+        <v>0.1819773438560197</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -5392,19 +5392,19 @@
         <v>23953</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15800</v>
+        <v>15496</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34943</v>
+        <v>36128</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1687291858820253</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.111298765375595</v>
+        <v>0.1091542426371998</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2461453256642881</v>
+        <v>0.2544933004986847</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>34</v>
@@ -5413,19 +5413,19 @@
         <v>37320</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26499</v>
+        <v>26905</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>50134</v>
+        <v>50682</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1467982795776709</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1042330896230877</v>
+        <v>0.1058319110040731</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1972022308603925</v>
+        <v>0.1993581967935567</v>
       </c>
     </row>
     <row r="30">
@@ -5442,19 +5442,19 @@
         <v>88447</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>78277</v>
+        <v>78477</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>96777</v>
+        <v>96247</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7878589962552358</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6972667528400902</v>
+        <v>0.699045788586152</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8620559238572931</v>
+        <v>0.857331412206616</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>96</v>
@@ -5463,19 +5463,19 @@
         <v>104383</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>92292</v>
+        <v>90939</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>114563</v>
+        <v>114296</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7352852626798047</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6501184910332931</v>
+        <v>0.6405835225647736</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8070006089668124</v>
+        <v>0.8051150084668111</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>175</v>
@@ -5484,19 +5484,19 @@
         <v>192831</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>178124</v>
+        <v>177135</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>206515</v>
+        <v>206027</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7585012402419612</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7006507561592287</v>
+        <v>0.6967616020847124</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8123280031822112</v>
+        <v>0.8104104280232538</v>
       </c>
     </row>
     <row r="31">
@@ -5588,19 +5588,19 @@
         <v>4354</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10698</v>
+        <v>10855</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03605775045472355</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009199699697272438</v>
+        <v>0.009234607687291337</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08859462272728443</v>
+        <v>0.08989642982750223</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -5609,19 +5609,19 @@
         <v>19000</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11334</v>
+        <v>11240</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29195</v>
+        <v>28570</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1155587965772353</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06893736772203637</v>
+        <v>0.06836323617505706</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1775660111373505</v>
+        <v>0.1737674932632693</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>21</v>
@@ -5630,19 +5630,19 @@
         <v>23354</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>14632</v>
+        <v>15389</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>34284</v>
+        <v>35036</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08189479355068076</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05130877025482298</v>
+        <v>0.05396290975440327</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.120223161322623</v>
+        <v>0.1228611402050678</v>
       </c>
     </row>
     <row r="33">
@@ -5659,19 +5659,19 @@
         <v>6717</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2225</v>
+        <v>2256</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15895</v>
+        <v>16071</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05562867332506793</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01842727287410502</v>
+        <v>0.01867893182815976</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1316296275797571</v>
+        <v>0.1330884732258191</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>15</v>
@@ -5680,19 +5680,19 @@
         <v>16789</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>10106</v>
+        <v>10074</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>26031</v>
+        <v>26403</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1021109518950904</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0614639576459095</v>
+        <v>0.06127335001200673</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.158325179972591</v>
+        <v>0.1605834323344068</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>20</v>
@@ -5701,19 +5701,19 @@
         <v>23506</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>15522</v>
+        <v>15165</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>34934</v>
+        <v>35027</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.08242844905039762</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0544307048535097</v>
+        <v>0.05317825986832224</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.122504455181092</v>
+        <v>0.1228306703938633</v>
       </c>
     </row>
     <row r="34">
@@ -5730,19 +5730,19 @@
         <v>109681</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>100806</v>
+        <v>100292</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>115219</v>
+        <v>115243</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9083135762202085</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8348151265561908</v>
+        <v>0.8305645229774768</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9541787494311971</v>
+        <v>0.9543763114132614</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>119</v>
@@ -5751,19 +5751,19 @@
         <v>128628</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>117401</v>
+        <v>115933</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>139462</v>
+        <v>137751</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7823302515276743</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7140469589759404</v>
+        <v>0.7051153298042664</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8482223400024466</v>
+        <v>0.8378141075285507</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>216</v>
@@ -5772,19 +5772,19 @@
         <v>238309</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>225049</v>
+        <v>224000</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>251999</v>
+        <v>249673</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8356767573989217</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7891789037134582</v>
+        <v>0.7854990227329995</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8836826636072553</v>
+        <v>0.8755247222724103</v>
       </c>
     </row>
     <row r="35">
@@ -5876,19 +5876,19 @@
         <v>50652</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>37615</v>
+        <v>37541</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>65909</v>
+        <v>67310</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09050846534662826</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06721275133572407</v>
+        <v>0.06708170626260658</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1177716558420664</v>
+        <v>0.1202745726958644</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>102</v>
@@ -5897,19 +5897,19 @@
         <v>112004</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>92629</v>
+        <v>92968</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>131890</v>
+        <v>132744</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1507511393561164</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1246735803464422</v>
+        <v>0.1251287485832453</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.177516726392711</v>
+        <v>0.1786657062216644</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>147</v>
@@ -5918,19 +5918,19 @@
         <v>162656</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>138005</v>
+        <v>140410</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>190016</v>
+        <v>188604</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1248692722726213</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1059446797446546</v>
+        <v>0.1077913092369085</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1458734125890893</v>
+        <v>0.1447889309448579</v>
       </c>
     </row>
     <row r="37">
@@ -5947,19 +5947,19 @@
         <v>60493</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>47505</v>
+        <v>46133</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>78780</v>
+        <v>77299</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1080937849406581</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08488491685048921</v>
+        <v>0.08243311768992284</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1407698905921389</v>
+        <v>0.1381236588630141</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>94</v>
@@ -5968,19 +5968,19 @@
         <v>102906</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>85206</v>
+        <v>86512</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>121907</v>
+        <v>124358</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1385051706466578</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1146820850083425</v>
+        <v>0.1164402114537864</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1640799677989869</v>
+        <v>0.1673780130375278</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>147</v>
@@ -5989,19 +5989,19 @@
         <v>163399</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>141023</v>
+        <v>140090</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>192287</v>
+        <v>190553</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1254396244103865</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1082617965508699</v>
+        <v>0.107545329711545</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.14761675040399</v>
+        <v>0.1462851659771111</v>
       </c>
     </row>
     <row r="38">
@@ -6018,19 +6018,19 @@
         <v>448492</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>427264</v>
+        <v>428171</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>468190</v>
+        <v>469295</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8013977497127136</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7634662251781578</v>
+        <v>0.7650878338277133</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8365959784909052</v>
+        <v>0.8385699890444683</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>498</v>
@@ -6039,19 +6039,19 @@
         <v>528065</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>499650</v>
+        <v>501349</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>552579</v>
+        <v>552369</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7107436899972257</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6724990991997355</v>
+        <v>0.6747851656101267</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.743738430343164</v>
+        <v>0.7434560118390338</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>904</v>
@@ -6060,19 +6060,19 @@
         <v>976557</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>941168</v>
+        <v>944417</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1009635</v>
+        <v>1006310</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7496911033169922</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7225235749429935</v>
+        <v>0.7250180880999877</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.775084703731141</v>
+        <v>0.7725323296245782</v>
       </c>
     </row>
     <row r="39">
@@ -6408,19 +6408,19 @@
         <v>4035</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8380</v>
+        <v>8441</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1037296760317445</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04022536424216731</v>
+        <v>0.0403776398020394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2154364733454714</v>
+        <v>0.2170181992539199</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -6429,19 +6429,19 @@
         <v>5838</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2160</v>
+        <v>2183</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11873</v>
+        <v>11995</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1182052728668897</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04374013245199647</v>
+        <v>0.04420452212442681</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2403812593606341</v>
+        <v>0.2428569401859077</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -6450,19 +6450,19 @@
         <v>9873</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4697</v>
+        <v>4918</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16559</v>
+        <v>17180</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.111827874401265</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05320482296818082</v>
+        <v>0.0557014876393447</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1875538447095838</v>
+        <v>0.1945881037968278</v>
       </c>
     </row>
     <row r="5">
@@ -6479,19 +6479,19 @@
         <v>2464</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6713</v>
+        <v>6378</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06335940106823476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01978513114009292</v>
+        <v>0.02014838778956393</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1725852121480294</v>
+        <v>0.163967943029057</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -6500,19 +6500,19 @@
         <v>16637</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9957</v>
+        <v>10312</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25088</v>
+        <v>24332</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3368341683987746</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2015991760754277</v>
+        <v>0.2087796815280271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5079485485274399</v>
+        <v>0.4926470232804353</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -6521,19 +6521,19 @@
         <v>19101</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11774</v>
+        <v>11298</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29147</v>
+        <v>27580</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.216351567133832</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1333586062751456</v>
+        <v>0.1279636732109345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3301404118950401</v>
+        <v>0.3123899318758628</v>
       </c>
     </row>
     <row r="6">
@@ -6550,19 +6550,19 @@
         <v>32397</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27082</v>
+        <v>27888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35787</v>
+        <v>35733</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8329109229000208</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6962618124255608</v>
+        <v>0.7170003077501215</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9200701813978063</v>
+        <v>0.9186888656318571</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -6571,19 +6571,19 @@
         <v>26916</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18785</v>
+        <v>19432</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34748</v>
+        <v>34022</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5449605587343357</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3803297498256903</v>
+        <v>0.393427210457901</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.703537164656547</v>
+        <v>0.6888299270329143</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -6592,19 +6592,19 @@
         <v>59313</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49068</v>
+        <v>49988</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67795</v>
+        <v>68171</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.671820558464903</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5557790733510847</v>
+        <v>0.5661990187881772</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7678930992665891</v>
+        <v>0.7721542433379509</v>
       </c>
     </row>
     <row r="7">
@@ -6696,19 +6696,19 @@
         <v>2503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7110</v>
+        <v>7097</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02866716590743792</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008380506122704625</v>
+        <v>0.008350256075952267</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08144463299490222</v>
+        <v>0.08129859068111539</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -6717,19 +6717,19 @@
         <v>15534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8275</v>
+        <v>7883</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24591</v>
+        <v>24337</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1348069222878722</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07181405555518856</v>
+        <v>0.06841000138519997</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2134114118276052</v>
+        <v>0.2112083213185372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -6738,19 +6738,19 @@
         <v>18036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10214</v>
+        <v>10475</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27889</v>
+        <v>28333</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08905677839516726</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05043548025988223</v>
+        <v>0.05172068757148875</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1377071176206748</v>
+        <v>0.1399001910214766</v>
       </c>
     </row>
     <row r="9">
@@ -6767,19 +6767,19 @@
         <v>7637</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3735</v>
+        <v>3663</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13718</v>
+        <v>14063</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08748828133108055</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04278490134890888</v>
+        <v>0.04195933075368303</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1571398613729675</v>
+        <v>0.1610917174766151</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -6788,19 +6788,19 @@
         <v>18936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11420</v>
+        <v>10507</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29479</v>
+        <v>28623</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1643348529528563</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09911144629688873</v>
+        <v>0.09118191691907114</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2558344845782028</v>
+        <v>0.2484046074133728</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -6809,19 +6809,19 @@
         <v>26573</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17576</v>
+        <v>16169</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>37701</v>
+        <v>37508</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1312111504944117</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08678736839231309</v>
+        <v>0.0798383207852963</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1861558643105688</v>
+        <v>0.1852050667713101</v>
       </c>
     </row>
     <row r="10">
@@ -6838,19 +6838,19 @@
         <v>77155</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70653</v>
+        <v>70362</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81981</v>
+        <v>81923</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8838445527614816</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8093588720149375</v>
+        <v>0.8060229096863364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9391280677025737</v>
+        <v>0.9384637305516721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -6859,19 +6859,19 @@
         <v>80758</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69831</v>
+        <v>69133</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91223</v>
+        <v>91251</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7008582247592716</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6060209037869162</v>
+        <v>0.5999633115354149</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7916701053570642</v>
+        <v>0.7919164852478068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -6880,19 +6880,19 @@
         <v>157914</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144677</v>
+        <v>145326</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>169900</v>
+        <v>169950</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.779732071110421</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7143707241743839</v>
+        <v>0.717579089367023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.838918066484784</v>
+        <v>0.8391663765650114</v>
       </c>
     </row>
     <row r="11">
@@ -6984,19 +6984,19 @@
         <v>4289</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1481</v>
+        <v>1505</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9028</v>
+        <v>9051</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06749216743775706</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02330669543701889</v>
+        <v>0.02367946706665592</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.142075493209079</v>
+        <v>0.1424323385541926</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -7005,19 +7005,19 @@
         <v>4477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -7026,19 +7026,19 @@
         <v>8766</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4046</v>
+        <v>4168</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17123</v>
+        <v>16645</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06111239883889732</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02820866903715924</v>
+        <v>0.02905610286503342</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.119374295923394</v>
+        <v>0.1160364627376421</v>
       </c>
     </row>
     <row r="13">
@@ -7055,19 +7055,19 @@
         <v>2458</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6692</v>
+        <v>6181</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03868515380553592</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0121291654451957</v>
+        <v>0.01185389963609434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1053118267528795</v>
+        <v>0.09727199837493464</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -7076,19 +7076,19 @@
         <v>7841</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3369</v>
+        <v>3468</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15646</v>
+        <v>15571</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09814500855632292</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0421645341425856</v>
+        <v>0.04340541609943604</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1958242412020955</v>
+        <v>0.194892069327619</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -7097,19 +7097,19 @@
         <v>10300</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5147</v>
+        <v>5368</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17676</v>
+        <v>18799</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07180396956624134</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03588320689287582</v>
+        <v>0.03741999251031895</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.123228935891585</v>
+        <v>0.131052950281965</v>
       </c>
     </row>
     <row r="14">
@@ -7126,19 +7126,19 @@
         <v>56799</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51595</v>
+        <v>51400</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60499</v>
+        <v>60271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8938226787567071</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8119297382677121</v>
+        <v>0.8088622151985364</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9520550828970099</v>
+        <v>0.9484631165453131</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -7147,19 +7147,19 @@
         <v>67578</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58756</v>
+        <v>58836</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73901</v>
+        <v>73267</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8458167394168058</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7353954751619294</v>
+        <v>0.736393857012661</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9249569173469435</v>
+        <v>0.9170239867499138</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>123</v>
@@ -7168,19 +7168,19 @@
         <v>124377</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>115044</v>
+        <v>112806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>131834</v>
+        <v>131256</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8670836315948613</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8020207857756545</v>
+        <v>0.7864193972197941</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9190661540760611</v>
+        <v>0.9150425991228962</v>
       </c>
     </row>
     <row r="15">
@@ -7272,19 +7272,19 @@
         <v>3455</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>865</v>
+        <v>950</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8577</v>
+        <v>7989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05338297926798511</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01336435478537726</v>
+        <v>0.0146780227675962</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1325374529044033</v>
+        <v>0.1234616274784159</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -7293,19 +7293,19 @@
         <v>5850</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1998</v>
+        <v>1272</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14078</v>
+        <v>14475</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06388429424531684</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02182213368303225</v>
+        <v>0.01389103215714473</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1537360720681646</v>
+        <v>0.1580645611308276</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -7314,19 +7314,19 @@
         <v>9305</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4251</v>
+        <v>4381</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18200</v>
+        <v>18690</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05953611039120753</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02720199914542048</v>
+        <v>0.02803348895768227</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1164545112614251</v>
+        <v>0.1195878882567811</v>
       </c>
     </row>
     <row r="17">
@@ -7343,19 +7343,19 @@
         <v>5169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1703</v>
+        <v>2363</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9957</v>
+        <v>10828</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07988227259784715</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0263218572162883</v>
+        <v>0.03651780018152699</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1538628267261855</v>
+        <v>0.1673191345890748</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -7364,19 +7364,19 @@
         <v>14731</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7682</v>
+        <v>8418</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24052</v>
+        <v>24372</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1608683980360868</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08388934930574278</v>
+        <v>0.0919233257113089</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2626498699609202</v>
+        <v>0.2661502661695193</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -7385,19 +7385,19 @@
         <v>19901</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12463</v>
+        <v>12091</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31176</v>
+        <v>30790</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.127335210640264</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07974608074902668</v>
+        <v>0.07736580765974156</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.199479354135327</v>
+        <v>0.197011227682023</v>
       </c>
     </row>
     <row r="18">
@@ -7414,19 +7414,19 @@
         <v>56088</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50369</v>
+        <v>49900</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>60552</v>
+        <v>59864</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8667347481341677</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7783607091487031</v>
+        <v>0.7711017336494538</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9357163479495542</v>
+        <v>0.9250860524918953</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -7435,19 +7435,19 @@
         <v>70992</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>61136</v>
+        <v>59891</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>79129</v>
+        <v>79137</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7752473077185963</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6676133926089733</v>
+        <v>0.6540218251704437</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8641013142684307</v>
+        <v>0.8641860421881774</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>121</v>
@@ -7456,19 +7456,19 @@
         <v>127080</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>115714</v>
+        <v>114431</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>136011</v>
+        <v>136508</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8131286789685285</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7404050562806016</v>
+        <v>0.7321912386609043</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8702723860378864</v>
+        <v>0.8734554080726905</v>
       </c>
     </row>
     <row r="19">
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4491</v>
+        <v>4529</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01898938165383374</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.106715118207106</v>
+        <v>0.107639292517428</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -7581,19 +7581,19 @@
         <v>5767</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2184</v>
+        <v>2258</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11710</v>
+        <v>11509</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1141291371082481</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04322529398857584</v>
+        <v>0.04469370879560051</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.231734368322606</v>
+        <v>0.2277478552237115</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -7602,19 +7602,19 @@
         <v>6566</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2275</v>
+        <v>2441</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13103</v>
+        <v>12432</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07090068793833069</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02456583830457823</v>
+        <v>0.02636154721896766</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1414777342931142</v>
+        <v>0.1342369143076467</v>
       </c>
     </row>
     <row r="21">
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6201</v>
+        <v>5694</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04017018939671652</v>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1473581726701262</v>
+        <v>0.1353243055837758</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -7652,19 +7652,19 @@
         <v>10518</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5477</v>
+        <v>5465</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18309</v>
+        <v>18446</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2081500072792124</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1083891728101243</v>
+        <v>0.1081436280691373</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3623168515133215</v>
+        <v>0.3650319383917842</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -7673,19 +7673,19 @@
         <v>12209</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6090</v>
+        <v>6211</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20480</v>
+        <v>20392</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1318253732266815</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06575845950252862</v>
+        <v>0.06706414573461353</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.221137231733222</v>
+        <v>0.220186259741184</v>
       </c>
     </row>
     <row r="22">
@@ -7702,19 +7702,19 @@
         <v>39591</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34771</v>
+        <v>35446</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41288</v>
+        <v>41304</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9408404289494497</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8263131975213823</v>
+        <v>0.8423398998228643</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9811869318696378</v>
+        <v>0.9815667278273646</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -7723,19 +7723,19 @@
         <v>34247</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26085</v>
+        <v>26439</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40438</v>
+        <v>40994</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6777208556125395</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5162046999515463</v>
+        <v>0.5232136367540254</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8002360794202207</v>
+        <v>0.8112478797057228</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -7744,19 +7744,19 @@
         <v>73837</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64821</v>
+        <v>64147</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>80981</v>
+        <v>80519</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7972739388349878</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6999246432360181</v>
+        <v>0.692646372884095</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.874408979624388</v>
+        <v>0.869419564329145</v>
       </c>
     </row>
     <row r="23">
@@ -7848,19 +7848,19 @@
         <v>8427</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4228</v>
+        <v>4175</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14320</v>
+        <v>13593</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.173947046140181</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08726678919553363</v>
+        <v>0.08618461527322634</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2955943670616283</v>
+        <v>0.2805863377755097</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -7869,19 +7869,19 @@
         <v>9509</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4296</v>
+        <v>3807</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17976</v>
+        <v>18180</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1411100080397209</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06374953867894811</v>
+        <v>0.05649603493577266</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.266748281784631</v>
+        <v>0.2697739851271697</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -7890,19 +7890,19 @@
         <v>17936</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10709</v>
+        <v>11773</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>27359</v>
+        <v>27632</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1548436805415778</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09245100906235303</v>
+        <v>0.101639680177721</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2361952102471364</v>
+        <v>0.2385442263137577</v>
       </c>
     </row>
     <row r="25">
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4989</v>
+        <v>5604</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03393692138450027</v>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1029830339978352</v>
+        <v>0.1156815590196818</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -7940,19 +7940,19 @@
         <v>7047</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2471</v>
+        <v>2511</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13784</v>
+        <v>13480</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1045732760291644</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03667087096298984</v>
+        <v>0.03726110994456722</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2045435329123688</v>
+        <v>0.2000393728927703</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -7961,19 +7961,19 @@
         <v>8691</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4238</v>
+        <v>3516</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17110</v>
+        <v>15934</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07503052133713148</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0365839983031261</v>
+        <v>0.03035721620109381</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1477154861476541</v>
+        <v>0.1375628345037678</v>
       </c>
     </row>
     <row r="26">
@@ -7990,19 +7990,19 @@
         <v>38375</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32191</v>
+        <v>33066</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42818</v>
+        <v>42793</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7921160324753187</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6644778978255059</v>
+        <v>0.6825343205514643</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8838311270398985</v>
+        <v>0.8833201872111782</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -8011,19 +8011,19 @@
         <v>50832</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>41973</v>
+        <v>42378</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57746</v>
+        <v>57940</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7543167159311147</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6228496882379914</v>
+        <v>0.6288669325155544</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8569168104677549</v>
+        <v>0.8597904850181954</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>89</v>
@@ -8032,19 +8032,19 @@
         <v>89207</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>79938</v>
+        <v>78828</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>98435</v>
+        <v>97339</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7701257981212908</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.690107436931666</v>
+        <v>0.6805270047841506</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8497943580784761</v>
+        <v>0.8403281406909519</v>
       </c>
     </row>
     <row r="27">
@@ -8136,19 +8136,19 @@
         <v>9228</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4607</v>
+        <v>4532</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15704</v>
+        <v>16029</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0822565841863513</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04106838135593417</v>
+        <v>0.04039358721723999</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1399873261591603</v>
+        <v>0.1428836691084258</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -8157,19 +8157,19 @@
         <v>17614</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11030</v>
+        <v>10005</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27886</v>
+        <v>27442</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1193131828687064</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07471528439111018</v>
+        <v>0.06777366766427055</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1888977657496586</v>
+        <v>0.1858894055945769</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -8178,19 +8178,19 @@
         <v>26842</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>18139</v>
+        <v>18042</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>39453</v>
+        <v>39013</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.103312223517999</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06981589191958583</v>
+        <v>0.06944376888063386</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1518551294886433</v>
+        <v>0.1501610882208506</v>
       </c>
     </row>
     <row r="29">
@@ -8207,19 +8207,19 @@
         <v>9391</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4499</v>
+        <v>4648</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17528</v>
+        <v>16347</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08371147775303835</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04010234096286259</v>
+        <v>0.04142972387129747</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1562418893579602</v>
+        <v>0.1457139368896387</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -8228,19 +8228,19 @@
         <v>22417</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14275</v>
+        <v>14298</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32372</v>
+        <v>33530</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1518502363799206</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09669787065967564</v>
+        <v>0.09685337859556982</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2192832794349425</v>
+        <v>0.2271275394157472</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>28</v>
@@ -8249,19 +8249,19 @@
         <v>31808</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21870</v>
+        <v>21586</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>45039</v>
+        <v>44094</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1224280674339197</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08417717964506946</v>
+        <v>0.08308314403955459</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.173353320644473</v>
+        <v>0.1697165471112816</v>
       </c>
     </row>
     <row r="30">
@@ -8278,19 +8278,19 @@
         <v>93566</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>84289</v>
+        <v>85357</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>100260</v>
+        <v>100517</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8340319380606104</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7513376469808987</v>
+        <v>0.7608606706446488</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8936993792722867</v>
+        <v>0.8959919506192193</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>92</v>
@@ -8299,19 +8299,19 @@
         <v>107595</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>94291</v>
+        <v>95061</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>118157</v>
+        <v>118202</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.728836580751373</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.638720368004067</v>
+        <v>0.6439372540929784</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8003883105849908</v>
+        <v>0.8006929246244487</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>182</v>
@@ -8320,19 +8320,19 @@
         <v>201160</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>186644</v>
+        <v>186178</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>214557</v>
+        <v>214028</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7742597090480813</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7183867925758263</v>
+        <v>0.7165911623762804</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8258215936553355</v>
+        <v>0.8237864548796574</v>
       </c>
     </row>
     <row r="31">
@@ -8424,19 +8424,19 @@
         <v>6358</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2481</v>
+        <v>2455</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12915</v>
+        <v>14836</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04739116819527445</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01848846314580447</v>
+        <v>0.01829927251662581</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09625674672531763</v>
+        <v>0.1105769916337506</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -8445,19 +8445,19 @@
         <v>6167</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2411</v>
+        <v>2401</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13434</v>
+        <v>13580</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03497964582699167</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01367357580611417</v>
+        <v>0.01361806299077211</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07620300806726099</v>
+        <v>0.07702637879950792</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>11</v>
@@ -8466,19 +8466,19 @@
         <v>12525</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6394</v>
+        <v>6898</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>22047</v>
+        <v>21829</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04034331838023138</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02059454439246288</v>
+        <v>0.02221942574205108</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07101435506089154</v>
+        <v>0.07031066538323123</v>
       </c>
     </row>
     <row r="33">
@@ -8495,19 +8495,19 @@
         <v>11371</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>6085</v>
+        <v>6185</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>19226</v>
+        <v>19968</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08475137944929287</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04535564988381298</v>
+        <v>0.04609621389295222</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1432977318625868</v>
+        <v>0.1488250835231596</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>20</v>
@@ -8516,19 +8516,19 @@
         <v>26407</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>17775</v>
+        <v>17317</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>39237</v>
+        <v>38019</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1497861318798457</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1008252049000613</v>
+        <v>0.09822376756452234</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2225607182701364</v>
+        <v>0.2156508126875078</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>32</v>
@@ -8537,19 +8537,19 @@
         <v>37778</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>26852</v>
+        <v>26602</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>52911</v>
+        <v>52900</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1216811898535632</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.08649066746283113</v>
+        <v>0.08568457300043389</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1704257433740647</v>
+        <v>0.1703905469698671</v>
       </c>
     </row>
     <row r="34">
@@ -8566,19 +8566,19 @@
         <v>116439</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>107116</v>
+        <v>106693</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>122727</v>
+        <v>122846</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8678574523554327</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7983706947298587</v>
+        <v>0.7952159701308302</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9147253562335207</v>
+        <v>0.9156139673430053</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>117</v>
@@ -8587,19 +8587,19 @@
         <v>143723</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>129413</v>
+        <v>131713</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>153632</v>
+        <v>154720</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8152342222931627</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7340609191949465</v>
+        <v>0.7471090314194715</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8714412565223709</v>
+        <v>0.8776086562177581</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>240</v>
@@ -8608,19 +8608,19 @@
         <v>260162</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>244838</v>
+        <v>243809</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>274237</v>
+        <v>273980</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8379754917662054</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7886154658959925</v>
+        <v>0.7853021718981633</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8833108080527963</v>
+        <v>0.8824816255933857</v>
       </c>
     </row>
     <row r="35">
@@ -8712,19 +8712,19 @@
         <v>39093</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>29062</v>
+        <v>29997</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>53615</v>
+        <v>52359</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06611049591069795</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04914663216630341</v>
+        <v>0.05072884122736237</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0906695067617083</v>
+        <v>0.08854480080657992</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>55</v>
@@ -8733,19 +8733,19 @@
         <v>70756</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>53359</v>
+        <v>52682</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>88232</v>
+        <v>90772</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09095392975087727</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06859043723708724</v>
+        <v>0.06772116815166836</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1134187349666733</v>
+        <v>0.1166843394457081</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>99</v>
@@ -8754,19 +8754,19 @@
         <v>109849</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>90546</v>
+        <v>89065</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>131566</v>
+        <v>131769</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08022504790784506</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06612789987296766</v>
+        <v>0.06504591317879024</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09608550872096951</v>
+        <v>0.09623397784581368</v>
       </c>
     </row>
     <row r="37">
@@ -8783,19 +8783,19 @@
         <v>41826</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>31696</v>
+        <v>31087</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>56343</v>
+        <v>54726</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0707321699831529</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05360155891404233</v>
+        <v>0.05257069512172245</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09528245368099603</v>
+        <v>0.09254840867258556</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>100</v>
@@ -8804,19 +8804,19 @@
         <v>124534</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>103088</v>
+        <v>102847</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>146498</v>
+        <v>147386</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1600838579455734</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1325158331099426</v>
+        <v>0.1322055614959096</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1883178377924776</v>
+        <v>0.189458584285868</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>145</v>
@@ -8825,19 +8825,19 @@
         <v>166360</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>141983</v>
+        <v>143491</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>191986</v>
+        <v>192918</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1214964505528853</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1036933367393525</v>
+        <v>0.104794337734605</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1402114200852777</v>
+        <v>0.1408919130155082</v>
       </c>
     </row>
     <row r="38">
@@ -8854,19 +8854,19 @@
         <v>510409</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>494457</v>
+        <v>494789</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>526117</v>
+        <v>525322</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8631573341061491</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8361799478138719</v>
+        <v>0.8367421592812853</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8897217928248695</v>
+        <v>0.8883771092004543</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>500</v>
@@ -8875,19 +8875,19 @@
         <v>582641</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>556920</v>
+        <v>552626</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>606966</v>
+        <v>609716</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7489622123035493</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7158991537845026</v>
+        <v>0.710378649355128</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7802317059902845</v>
+        <v>0.7837662064635542</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1038</v>
@@ -8896,19 +8896,19 @@
         <v>1093050</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1061370</v>
+        <v>1064110</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1125016</v>
+        <v>1125038</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7982785015392696</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.77514216121471</v>
+        <v>0.7771431740235821</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8216240988430077</v>
+        <v>0.8216401704103182</v>
       </c>
     </row>
     <row r="39">
@@ -9244,19 +9244,19 @@
         <v>6763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3514</v>
+        <v>3428</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11680</v>
+        <v>11803</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1109518446491421</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05764931804262637</v>
+        <v>0.05623438166265287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1916150397065379</v>
+        <v>0.1936397093040965</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -9265,19 +9265,19 @@
         <v>11613</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7666</v>
+        <v>7568</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16289</v>
+        <v>16517</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1779085397995618</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1174342272330654</v>
+        <v>0.1159385335183081</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2495417561034789</v>
+        <v>0.2530401611710837</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -9286,19 +9286,19 @@
         <v>18376</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13144</v>
+        <v>12806</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26103</v>
+        <v>25603</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1455763161663921</v>
+        <v>0.145576316166392</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1041282522912845</v>
+        <v>0.1014461539263262</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2067894462451023</v>
+        <v>0.2028259670069298</v>
       </c>
     </row>
     <row r="5">
@@ -9315,19 +9315,19 @@
         <v>11625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7272</v>
+        <v>7234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17337</v>
+        <v>17726</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1907102809507182</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1193044196119118</v>
+        <v>0.1186698204534406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2844275722893532</v>
+        <v>0.2907995558540973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -9336,19 +9336,19 @@
         <v>15592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11298</v>
+        <v>11261</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20170</v>
+        <v>20988</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2388585417047749</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1730838882075698</v>
+        <v>0.1725189749718618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3089967131714477</v>
+        <v>0.3215298220041415</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -9357,19 +9357,19 @@
         <v>27216</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20646</v>
+        <v>20928</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35407</v>
+        <v>34723</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2156085839410131</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1635555661828642</v>
+        <v>0.1657946947223586</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2804932659536331</v>
+        <v>0.2750741879532042</v>
       </c>
     </row>
     <row r="6">
@@ -9386,19 +9386,19 @@
         <v>42567</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36243</v>
+        <v>35722</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47907</v>
+        <v>48281</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6983378744001398</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5945844734742644</v>
+        <v>0.5860317467070691</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7859410724014949</v>
+        <v>0.7920720362561601</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>79</v>
@@ -9407,19 +9407,19 @@
         <v>38071</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32604</v>
+        <v>32184</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43593</v>
+        <v>43900</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5832329184956633</v>
+        <v>0.5832329184956632</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4994721873704761</v>
+        <v>0.4930510596700755</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6678202870867642</v>
+        <v>0.6725220617082082</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>137</v>
@@ -9428,19 +9428,19 @@
         <v>80638</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>70700</v>
+        <v>71971</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>88312</v>
+        <v>88020</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6388150998925948</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5600870877822511</v>
+        <v>0.5701497700358011</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6996049554332106</v>
+        <v>0.697290963130662</v>
       </c>
     </row>
     <row r="7">
@@ -9532,19 +9532,19 @@
         <v>5545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2743</v>
+        <v>1871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11125</v>
+        <v>11384</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0634128940798023</v>
+        <v>0.06341289407980229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03136864683263298</v>
+        <v>0.02139096464190565</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.127220658348944</v>
+        <v>0.130187305863998</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -9553,19 +9553,19 @@
         <v>23401</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16579</v>
+        <v>17545</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31096</v>
+        <v>30599</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1729216957094701</v>
+        <v>0.17292169570947</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.122506335406531</v>
+        <v>0.129650470298768</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2297831401431367</v>
+        <v>0.2261086274366942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -9574,19 +9574,19 @@
         <v>28946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20840</v>
+        <v>21542</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37545</v>
+        <v>38321</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1299365577149892</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09354948777973776</v>
+        <v>0.0966994479855082</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.168537106213709</v>
+        <v>0.1720178916666452</v>
       </c>
     </row>
     <row r="9">
@@ -9603,19 +9603,19 @@
         <v>4754</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1864</v>
+        <v>1838</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10456</v>
+        <v>9776</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05436576670870338</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02131152085508865</v>
+        <v>0.02101824489555839</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1195709030304297</v>
+        <v>0.1117939959122516</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>46</v>
@@ -9624,19 +9624,19 @@
         <v>27822</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20642</v>
+        <v>21693</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34995</v>
+        <v>36674</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2055863232733397</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.152530135208833</v>
+        <v>0.1602998260750035</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2585943685276366</v>
+        <v>0.2710009513802474</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>51</v>
@@ -9645,19 +9645,19 @@
         <v>32575</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>24333</v>
+        <v>25070</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>41853</v>
+        <v>41714</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1462282041559804</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1092297998051862</v>
+        <v>0.1125363157894387</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1878741892714534</v>
+        <v>0.1872489845194844</v>
       </c>
     </row>
     <row r="10">
@@ -9674,19 +9674,19 @@
         <v>77145</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70534</v>
+        <v>70596</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81811</v>
+        <v>81841</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8822213392114944</v>
+        <v>0.8822213392114943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8066168683101806</v>
+        <v>0.8073273584995704</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9355835845218011</v>
+        <v>0.9359246245888119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>141</v>
@@ -9695,19 +9695,19 @@
         <v>84105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74870</v>
+        <v>74198</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92760</v>
+        <v>91473</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6214919810171903</v>
+        <v>0.6214919810171904</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5532511215596311</v>
+        <v>0.5482814578180464</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6854470609106489</v>
+        <v>0.6759333235609778</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -9716,19 +9716,19 @@
         <v>161249</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149417</v>
+        <v>149451</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>171589</v>
+        <v>171373</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7238352381290304</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6707200828086149</v>
+        <v>0.6708725716158261</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7702497150643276</v>
+        <v>0.7692804437468621</v>
       </c>
     </row>
     <row r="11">
@@ -9820,19 +9820,19 @@
         <v>11603</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7573</v>
+        <v>7388</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17085</v>
+        <v>16660</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1605236337728378</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1047666451528958</v>
+        <v>0.1022039890432572</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2363591062012094</v>
+        <v>0.230482756410706</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -9841,19 +9841,19 @@
         <v>16341</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11795</v>
+        <v>11645</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22304</v>
+        <v>22206</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1903456783550528</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1373880060557647</v>
+        <v>0.1356426886609122</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2598039846368583</v>
+        <v>0.2586611147725175</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -9862,19 +9862,19 @@
         <v>27945</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20937</v>
+        <v>21788</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34865</v>
+        <v>35074</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1767137457879999</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1323992688385021</v>
+        <v>0.1377824838894283</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2204747635611154</v>
+        <v>0.2217964416893334</v>
       </c>
     </row>
     <row r="13">
@@ -9891,19 +9891,19 @@
         <v>2871</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1067</v>
+        <v>1047</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5827</v>
+        <v>6171</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03971254016341496</v>
+        <v>0.03971254016341495</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0147573905450561</v>
+        <v>0.0144789258304181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08061240620982883</v>
+        <v>0.08536585622835913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -9912,19 +9912,19 @@
         <v>12019</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7893</v>
+        <v>7867</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16834</v>
+        <v>17418</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1400006298584272</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09194111383610409</v>
+        <v>0.09163696038326971</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1960900514856822</v>
+        <v>0.2028833403364309</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -9933,19 +9933,19 @@
         <v>14890</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10013</v>
+        <v>10425</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20861</v>
+        <v>20868</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09415801594132961</v>
+        <v>0.09415801594132962</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06332236965120486</v>
+        <v>0.06592331469384145</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1319171151089635</v>
+        <v>0.1319623276706019</v>
       </c>
     </row>
     <row r="14">
@@ -9962,19 +9962,19 @@
         <v>57811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51941</v>
+        <v>52389</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62356</v>
+        <v>62581</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7997638260637473</v>
+        <v>0.7997638260637472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7185620126390673</v>
+        <v>0.7247510321269235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8626435261961656</v>
+        <v>0.8657484749149233</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>112</v>
@@ -9983,19 +9983,19 @@
         <v>57490</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51498</v>
+        <v>51360</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63220</v>
+        <v>63360</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.66965369178652</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.599863230375268</v>
+        <v>0.5982583797610269</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7363967733594896</v>
+        <v>0.7380296289630082</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>209</v>
@@ -10004,19 +10004,19 @@
         <v>115301</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>106596</v>
+        <v>106974</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122881</v>
+        <v>122608</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7291282382706704</v>
+        <v>0.7291282382706705</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6740846170421304</v>
+        <v>0.6764703829100939</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7770661250616676</v>
+        <v>0.7753404709978602</v>
       </c>
     </row>
     <row r="15">
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4317</v>
+        <v>4293</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01575893566040677</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05265530086797116</v>
+        <v>0.05236991254729851</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -10129,19 +10129,19 @@
         <v>12571</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8498</v>
+        <v>8443</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17553</v>
+        <v>16923</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1137579349569506</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07690274082014854</v>
+        <v>0.07640256222414224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1588429816846394</v>
+        <v>0.1531449007207384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -10150,19 +10150,19 @@
         <v>13863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9748</v>
+        <v>9757</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19758</v>
+        <v>19246</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07201896810515052</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05064100220468192</v>
+        <v>0.05068962214477777</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1026472439074287</v>
+        <v>0.09998863875436331</v>
       </c>
     </row>
     <row r="17">
@@ -10179,19 +10179,19 @@
         <v>12374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7727</v>
+        <v>8160</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18472</v>
+        <v>18615</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1509298105876677</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09424710440562031</v>
+        <v>0.09953021186935264</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2253121806362207</v>
+        <v>0.2270629050264651</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -10200,19 +10200,19 @@
         <v>14518</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10403</v>
+        <v>10230</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19284</v>
+        <v>19349</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1313824002271639</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09414331304274851</v>
+        <v>0.09257948422876372</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1745050699090194</v>
+        <v>0.1751002408507353</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>52</v>
@@ -10221,19 +10221,19 @@
         <v>26892</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20776</v>
+        <v>20410</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34737</v>
+        <v>34437</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.139707880272187</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1079377267441128</v>
+        <v>0.1060359525538871</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1804670923144575</v>
+        <v>0.1789094237499601</v>
       </c>
     </row>
     <row r="18">
@@ -10250,19 +10250,19 @@
         <v>68317</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62153</v>
+        <v>61616</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>73441</v>
+        <v>72805</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8333112537519256</v>
+        <v>0.8333112537519255</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7581327502764121</v>
+        <v>0.7515773973796305</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.895812863983809</v>
+        <v>0.8880668164232295</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>193</v>
@@ -10271,19 +10271,19 @@
         <v>83415</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77209</v>
+        <v>77858</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>88819</v>
+        <v>88910</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7548596648158855</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6986979075426633</v>
+        <v>0.7045711633411464</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8037600909349202</v>
+        <v>0.8045905194838781</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>288</v>
@@ -10292,19 +10292,19 @@
         <v>151731</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>143010</v>
+        <v>143064</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>159146</v>
+        <v>159274</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7882731516226624</v>
+        <v>0.7882731516226625</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7429663885520572</v>
+        <v>0.743249872113928</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8267993309652193</v>
+        <v>0.827463121240913</v>
       </c>
     </row>
     <row r="19">
@@ -10396,19 +10396,19 @@
         <v>2612</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>993</v>
+        <v>1024</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5261</v>
+        <v>5709</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07154227964099671</v>
+        <v>0.07154227964099667</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02720371512581144</v>
+        <v>0.02806371561989187</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1441265897516714</v>
+        <v>0.1563913900935055</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -10417,19 +10417,19 @@
         <v>4672</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2621</v>
+        <v>2411</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8202</v>
+        <v>8214</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.07592080905083215</v>
+        <v>0.07592080905083214</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04259055708960179</v>
+        <v>0.039181822240215</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1332764829367405</v>
+        <v>0.1334637862750322</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -10438,19 +10438,19 @@
         <v>7284</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4253</v>
+        <v>4263</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11707</v>
+        <v>11313</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.07429064359101004</v>
+        <v>0.07429064359101002</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04337935016918582</v>
+        <v>0.04348046325162176</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.119407951555776</v>
+        <v>0.1153872825800311</v>
       </c>
     </row>
     <row r="21">
@@ -10467,19 +10467,19 @@
         <v>5066</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2635</v>
+        <v>2710</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8754</v>
+        <v>8629</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.138770454346826</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07219610233628936</v>
+        <v>0.07423912508110603</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2398140925921056</v>
+        <v>0.2364000861537691</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>33</v>
@@ -10488,19 +10488,19 @@
         <v>12555</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9077</v>
+        <v>8891</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17122</v>
+        <v>16917</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2040106851161911</v>
+        <v>0.204010685116191</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1474855488164837</v>
+        <v>0.1444723294908337</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2782134631350488</v>
+        <v>0.274883243282721</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>43</v>
@@ -10509,19 +10509,19 @@
         <v>17621</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13025</v>
+        <v>12882</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>22475</v>
+        <v>23152</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1797211666874362</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1328464711753771</v>
+        <v>0.1313862183484791</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.229233996400053</v>
+        <v>0.2361412123412201</v>
       </c>
     </row>
     <row r="22">
@@ -10538,19 +10538,19 @@
         <v>28826</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25079</v>
+        <v>24804</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31888</v>
+        <v>31960</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7896872660121773</v>
+        <v>0.789687266012177</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6870529324894163</v>
+        <v>0.6794987258887767</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8735598712619584</v>
+        <v>0.8755467981073675</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>121</v>
@@ -10559,19 +10559,19 @@
         <v>44314</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39762</v>
+        <v>39585</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48597</v>
+        <v>48486</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7200685058329769</v>
+        <v>0.7200685058329768</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6461009560525346</v>
+        <v>0.6432173270964928</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7896570009670215</v>
+        <v>0.7878486829825393</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>177</v>
@@ -10580,19 +10580,19 @@
         <v>73140</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67479</v>
+        <v>67097</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>78354</v>
+        <v>78260</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.745988189721554</v>
+        <v>0.7459881897215539</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6882472752591287</v>
+        <v>0.6843496033819482</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7991666764183546</v>
+        <v>0.7982069983112883</v>
       </c>
     </row>
     <row r="23">
@@ -10684,19 +10684,19 @@
         <v>9124</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6001</v>
+        <v>5854</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13438</v>
+        <v>13032</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1515066236227123</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09964721779368337</v>
+        <v>0.09720138682778769</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2231284854785114</v>
+        <v>0.2163930160026839</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -10705,19 +10705,19 @@
         <v>15819</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12137</v>
+        <v>12072</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20265</v>
+        <v>20616</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2350262281510134</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1803130126550962</v>
+        <v>0.179350155080302</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3010725040652712</v>
+        <v>0.3062962990706224</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>69</v>
@@ -10726,19 +10726,19 @@
         <v>24944</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19665</v>
+        <v>19651</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30672</v>
+        <v>30476</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1955863544707648</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1541964291073499</v>
+        <v>0.1540841545976207</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2405052417723605</v>
+        <v>0.2389646723359627</v>
       </c>
     </row>
     <row r="25">
@@ -10755,19 +10755,19 @@
         <v>5457</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3040</v>
+        <v>2826</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9309</v>
+        <v>9052</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09061830601791689</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05047918887344558</v>
+        <v>0.0469189118343836</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1545788720787017</v>
+        <v>0.1502997000154405</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -10776,19 +10776,19 @@
         <v>10912</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7819</v>
+        <v>7519</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15258</v>
+        <v>14728</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1621143002480977</v>
+        <v>0.1621143002480976</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1161586694949074</v>
+        <v>0.1117095280297003</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2266884908401546</v>
+        <v>0.2188110156103976</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -10797,19 +10797,19 @@
         <v>16369</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12149</v>
+        <v>12063</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21550</v>
+        <v>21317</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1283522512416681</v>
+        <v>0.1283522512416682</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0952659841823322</v>
+        <v>0.09458557965772481</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1689746915558084</v>
+        <v>0.1671530384386549</v>
       </c>
     </row>
     <row r="26">
@@ -10826,19 +10826,19 @@
         <v>45642</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40789</v>
+        <v>41088</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49388</v>
+        <v>49555</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7578750703593709</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.677289811329438</v>
+        <v>0.6822532462459759</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8200764622187358</v>
+        <v>0.8228518965779757</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>100</v>
@@ -10847,19 +10847,19 @@
         <v>40578</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35814</v>
+        <v>35631</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45523</v>
+        <v>45077</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.602859471600889</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5320879443550922</v>
+        <v>0.5293616073253381</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6763239560526724</v>
+        <v>0.6697006245891237</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>201</v>
@@ -10868,19 +10868,19 @@
         <v>86219</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>79426</v>
+        <v>79623</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>92503</v>
+        <v>92102</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6760613942875671</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6227965911373894</v>
+        <v>0.6243363137216436</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7253313296928188</v>
+        <v>0.7221873176981837</v>
       </c>
     </row>
     <row r="27">
@@ -10972,19 +10972,19 @@
         <v>5207</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1901</v>
+        <v>1913</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11167</v>
+        <v>11725</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03440307464475331</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01256000929384805</v>
+        <v>0.01263783928729985</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07378391940843129</v>
+        <v>0.0774769948240747</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>34</v>
@@ -10993,19 +10993,19 @@
         <v>24835</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>18154</v>
+        <v>17606</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>34000</v>
+        <v>33934</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1507260113381086</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1101779756167635</v>
+        <v>0.1068507223866744</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2063518197952879</v>
+        <v>0.2059465872906291</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>39</v>
@@ -11014,19 +11014,19 @@
         <v>30042</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>21331</v>
+        <v>21141</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>41017</v>
+        <v>40529</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.09503515991813173</v>
+        <v>0.09503515991813175</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06747827595388575</v>
+        <v>0.06687901984489598</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1297546840397842</v>
+        <v>0.1282119627722124</v>
       </c>
     </row>
     <row r="29">
@@ -11043,19 +11043,19 @@
         <v>11659</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6549</v>
+        <v>6304</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18742</v>
+        <v>19943</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.07703562059131608</v>
+        <v>0.07703562059131611</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04327018001933775</v>
+        <v>0.04165125294661805</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1238421055523794</v>
+        <v>0.131773203204832</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -11064,19 +11064,19 @@
         <v>21331</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15167</v>
+        <v>14931</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30083</v>
+        <v>28607</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1294598804594535</v>
+        <v>0.1294598804594534</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09204938638594427</v>
+        <v>0.09061644182649575</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1825753175621356</v>
+        <v>0.1736164072228065</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>44</v>
@@ -11085,19 +11085,19 @@
         <v>32990</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>23988</v>
+        <v>25284</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>42801</v>
+        <v>42770</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1043612047372692</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07588475471300177</v>
+        <v>0.07998506512527051</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1353978446340887</v>
+        <v>0.1353013430642765</v>
       </c>
     </row>
     <row r="30">
@@ -11114,19 +11114,19 @@
         <v>134476</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>125880</v>
+        <v>125450</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>140930</v>
+        <v>141017</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8885613047639304</v>
+        <v>0.8885613047639306</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8317608728346767</v>
+        <v>0.8289256182565476</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9312089797548779</v>
+        <v>0.9317802949708349</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>176</v>
@@ -11135,19 +11135,19 @@
         <v>118603</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108343</v>
+        <v>108710</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>128015</v>
+        <v>128912</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.719814108202438</v>
+        <v>0.7198141082024381</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6575466465319471</v>
+        <v>0.6597710044205286</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7769387499963439</v>
+        <v>0.7823800514124328</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>327</v>
@@ -11156,19 +11156,19 @@
         <v>253080</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>237812</v>
+        <v>240291</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>264817</v>
+        <v>264993</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.8006036353445991</v>
+        <v>0.8006036353445992</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7523063693389733</v>
+        <v>0.760147316819726</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8377349382819488</v>
+        <v>0.8382920423108482</v>
       </c>
     </row>
     <row r="31">
@@ -11260,19 +11260,19 @@
         <v>6086</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2753</v>
+        <v>2735</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11532</v>
+        <v>11144</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03735812220882073</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01689946244027312</v>
+        <v>0.01678939542108972</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07079136411522531</v>
+        <v>0.06840980088788658</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>46</v>
@@ -11281,19 +11281,19 @@
         <v>30361</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22851</v>
+        <v>22731</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>39933</v>
+        <v>39392</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1426963888157934</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1073979517223094</v>
+        <v>0.1068369781803592</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1876834609167373</v>
+        <v>0.1851424362763661</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>55</v>
@@ -11302,19 +11302,19 @@
         <v>36447</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>27916</v>
+        <v>27559</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>47326</v>
+        <v>45594</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.09701834225772181</v>
+        <v>0.09701834225772182</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07431073218805147</v>
+        <v>0.07335997731033128</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1259784344955011</v>
+        <v>0.1213679412632021</v>
       </c>
     </row>
     <row r="33">
@@ -11331,19 +11331,19 @@
         <v>14788</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>9699</v>
+        <v>9133</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>22318</v>
+        <v>21181</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.09077881255405786</v>
+        <v>0.09077881255405787</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05953807899029754</v>
+        <v>0.05606728876867918</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1370008923159819</v>
+        <v>0.1300204163576123</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>62</v>
@@ -11352,19 +11352,19 @@
         <v>39175</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>30722</v>
+        <v>30898</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>48264</v>
+        <v>48960</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.184124105200021</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1443953912218211</v>
+        <v>0.1452218567131222</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2268387141270582</v>
+        <v>0.2301113871845593</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>83</v>
@@ -11373,19 +11373,19 @@
         <v>53963</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>42994</v>
+        <v>43331</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>65943</v>
+        <v>65391</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.143646596306051</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1144461440261637</v>
+        <v>0.1153428512443608</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1755352859121062</v>
+        <v>0.174065883629415</v>
       </c>
     </row>
     <row r="34">
@@ -11402,19 +11402,19 @@
         <v>142028</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>133990</v>
+        <v>134884</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>148448</v>
+        <v>148514</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8718630652371215</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8225186398428052</v>
+        <v>0.8280097723626846</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9112745127455595</v>
+        <v>0.9116784293694794</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>235</v>
@@ -11423,19 +11423,19 @@
         <v>143230</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>132055</v>
+        <v>132172</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>154025</v>
+        <v>154043</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.6731795059841857</v>
+        <v>0.6731795059841855</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6206602590844823</v>
+        <v>0.6212069183681987</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7239153086594934</v>
+        <v>0.7240003564714098</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>439</v>
@@ -11444,19 +11444,19 @@
         <v>285258</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>272335</v>
+        <v>271791</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>298728</v>
+        <v>297614</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.7593350614362271</v>
+        <v>0.7593350614362272</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7249348689714448</v>
+        <v>0.7234881191526911</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7951904553018406</v>
+        <v>0.7922251585116787</v>
       </c>
     </row>
     <row r="35">
@@ -11548,19 +11548,19 @@
         <v>48232</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>37591</v>
+        <v>38254</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>59977</v>
+        <v>60183</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.06758578435871293</v>
+        <v>0.06758578435871294</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05267498028141861</v>
+        <v>0.05360382660976546</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08404452757589176</v>
+        <v>0.08433275710372994</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>258</v>
@@ -11569,19 +11569,19 @@
         <v>139614</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>123544</v>
+        <v>122984</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>157087</v>
+        <v>156058</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1545521737692366</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1367630416819726</v>
+        <v>0.1361432367425532</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1738949906103811</v>
+        <v>0.1727556857042131</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>336</v>
@@ -11590,19 +11590,19 @@
         <v>187845</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>167032</v>
+        <v>168073</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>207418</v>
+        <v>207701</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1161705521420127</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1032989107583695</v>
+        <v>0.1039424521965869</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1282753429142347</v>
+        <v>0.1284502466083355</v>
       </c>
     </row>
     <row r="37">
@@ -11619,19 +11619,19 @@
         <v>68592</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>56342</v>
+        <v>56570</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>83674</v>
+        <v>82347</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.09611688732438781</v>
+        <v>0.09611688732438782</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07895029810417634</v>
+        <v>0.07926963199412468</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.117250001790881</v>
+        <v>0.1153911255680563</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>292</v>
@@ -11640,19 +11640,19 @@
         <v>153924</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>137950</v>
+        <v>137104</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>170221</v>
+        <v>171498</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1703935237262024</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1527110640703392</v>
+        <v>0.1517740103642534</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1884340228817766</v>
+        <v>0.1898481916975579</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>392</v>
@@ -11661,19 +11661,19 @@
         <v>222516</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>202155</v>
+        <v>203364</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>243538</v>
+        <v>244845</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.137612379499783</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1250204141399238</v>
+        <v>0.1257681416093145</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1506132021865104</v>
+        <v>0.1514211111135787</v>
       </c>
     </row>
     <row r="38">
@@ -11690,19 +11690,19 @@
         <v>596811</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>578657</v>
+        <v>578677</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>612159</v>
+        <v>610870</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.8362973283168991</v>
+        <v>0.8362973283168993</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8108580420035443</v>
+        <v>0.8108872176854679</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8578046628765015</v>
+        <v>0.855997802904096</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1157</v>
@@ -11711,19 +11711,19 @@
         <v>609806</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>587768</v>
+        <v>588378</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>628787</v>
+        <v>629903</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.675054302504561</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6506583420956371</v>
+        <v>0.6513341156984177</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6960666795961227</v>
+        <v>0.6973016740830115</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2002</v>
@@ -11732,19 +11732,19 @@
         <v>1206617</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1178500</v>
+        <v>1178088</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1234856</v>
+        <v>1233805</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7462170683582044</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7288286903715335</v>
+        <v>0.7285736905424667</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7636816633682177</v>
+        <v>0.7630314826458122</v>
       </c>
     </row>
     <row r="39">
